--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2446.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2446.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.044459390656884</v>
+        <v>2.061582803726196</v>
       </c>
       <c r="B1">
-        <v>2.213696658809646</v>
+        <v>2.259390830993652</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.570086717605591</v>
       </c>
       <c r="D1">
-        <v>2.789232956005907</v>
+        <v>3.895766019821167</v>
       </c>
       <c r="E1">
-        <v>0.9796505192151626</v>
+        <v>1.034889221191406</v>
       </c>
     </row>
   </sheetData>
